--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAI-PC\Desktop\TicketReassign\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -32,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +75,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -116,7 +129,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,9 +161,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,6 +213,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -357,14 +406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,7 +426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -401,7 +452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -427,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -453,7 +504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -479,7 +530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -505,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -531,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -557,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -583,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -609,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -635,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -661,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -687,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -713,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -739,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -765,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -791,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -817,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -843,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -869,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -895,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -921,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -947,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>6</v>
       </c>
@@ -973,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -999,7 +1050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1025,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1051,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>6</v>
       </c>
@@ -1077,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1103,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1129,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1155,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1181,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1207,7 +1258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1233,7 +1284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1259,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1285,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1311,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1337,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1363,7 +1414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1389,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>6</v>
       </c>
@@ -1415,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1441,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1467,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>6</v>
       </c>
@@ -1493,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1519,7 +1570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1545,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>6</v>
       </c>
@@ -1571,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>6</v>
       </c>
@@ -1597,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1623,7 +1674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1649,7 +1700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6</v>
       </c>
@@ -1681,14 +1732,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1702,7 +1753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1731,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1760,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1789,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1818,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1847,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1876,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1905,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1934,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1963,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1992,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2021,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2050,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -2079,7 +2130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2108,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2137,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2166,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2195,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2224,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -2253,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -2282,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2311,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -2340,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>6</v>
       </c>
@@ -2369,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2398,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2427,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2456,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2485,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2514,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2543,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2572,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2601,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -2630,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2659,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5</v>
       </c>
@@ -2688,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2717,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2746,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2775,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2804,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2833,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>6</v>
       </c>
@@ -2862,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2891,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2920,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>6</v>
       </c>
@@ -2949,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2978,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3007,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>6</v>
       </c>
@@ -3036,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>6</v>
       </c>
@@ -3065,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
@@ -3094,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3123,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6</v>
       </c>
